--- a/com.AutomationFramework/src/test/resources/TestDataInvalid.xlsx
+++ b/com.AutomationFramework/src/test/resources/TestDataInvalid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47c3f5c9a8814784/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\git\QWA_SJFVD-M2Repository\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{680B7935-59F7-4FB2-992A-19113187F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282775F6-5E50-4144-BC8E-38E1EC854AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{0F58E2BB-12BC-42B1-B61C-8267C2AB86DC}"/>
   </bookViews>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>admin2</t>
-  </si>
-  <si>
-    <t>admin3</t>
-  </si>
-  <si>
-    <t>admin4</t>
-  </si>
-  <si>
     <t>manager1</t>
   </si>
   <si>
@@ -58,6 +46,18 @@
   </si>
   <si>
     <t>manager4</t>
+  </si>
+  <si>
+    <t>admin64</t>
+  </si>
+  <si>
+    <t>admin65</t>
+  </si>
+  <si>
+    <t>admin45</t>
+  </si>
+  <si>
+    <t>admin52</t>
   </si>
 </sst>
 </file>
@@ -418,41 +418,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
